--- a/checklist_v2_2.xlsx
+++ b/checklist_v2_2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bancine/Desktop/毕设/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\graduationPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1CE259-6869-4E4F-8C84-9E12999DB37D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="456" windowWidth="24744" windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="答辩审核" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>检查结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,50 +151,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检验对象：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>源代码检验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、修改姓名学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、修改时间日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、格式对齐（与上行内容前后对齐）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、标题字体宋体加粗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、代码字体Times New Roman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、一级列表使用编号1. 2. 3. …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、二级列表使用编号(1) (2) (3) …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、三级列表使用编号(a) (b) (c) …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、四级列表使用【文字描述】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>题目名称</t>
   </si>
   <si>
@@ -263,24 +222,124 @@
   </si>
   <si>
     <t>[1] 张欣.基于ASPNET的社区管理信息系统的设计与实现[D].华中科技大学，2012.</t>
+  </si>
+  <si>
+    <t>检查项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面页个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名、学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面页时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年、月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020年X月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：月份待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面页格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式对齐（与上行内容前后对齐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文页字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋体、加粗、小五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：仅一级标题加粗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Times New Roman、小五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文页标题列表使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级列表使用编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 2. 3. …</t>
+  </si>
+  <si>
+    <t>二级列表使用编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) (2) (3) …</t>
+  </si>
+  <si>
+    <t>三级列表使用编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(a) (b) (c) …</t>
+  </si>
+  <si>
+    <t>四级列表使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【文字描述】</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -288,7 +347,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -330,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,9 +401,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -377,31 +433,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -739,71 +804,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="6" max="6" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="8.77734375" style="2"/>
+    <col min="6" max="6" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:79">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:79">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:79" s="1" customFormat="1">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3"/>
-      <c r="G3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -873,24 +938,24 @@
       <c r="BZ3"/>
       <c r="CA3"/>
     </row>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" s="1" customFormat="1">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4"/>
-      <c r="G4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="G4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -960,62 +1025,62 @@
       <c r="BZ4"/>
       <c r="CA4"/>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:79">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5"/>
-      <c r="G5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:79">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6"/>
-      <c r="G6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:79" s="1" customFormat="1">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7"/>
-      <c r="G7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -1084,74 +1149,74 @@
       <c r="BY7"/>
       <c r="BZ7"/>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:79">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8"/>
-      <c r="G8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.2">
+      <c r="G8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:79">
       <c r="A9"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:79">
       <c r="A10"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:79">
       <c r="A11"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:79">
       <c r="A12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:79">
       <c r="A13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:79">
       <c r="A14"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:79">
       <c r="A15"/>
       <c r="F15"/>
     </row>
-    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:79" s="1" customFormat="1">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1234,6 +1299,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G3:K3"/>
@@ -1250,12 +1321,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -1274,229 +1339,234 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5171E696-615C-3348-AD4B-935E8FD123D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="7"/>
-    <col min="4" max="4" width="50.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="7"/>
-    <col min="7" max="10" width="10.83203125" style="11"/>
-    <col min="11" max="11" width="31.6640625" style="11" customWidth="1"/>
+    <col min="1" max="3" width="10.77734375" style="6"/>
+    <col min="4" max="4" width="50.77734375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="6"/>
+    <col min="7" max="10" width="10.77734375" style="10"/>
+    <col min="11" max="11" width="31.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="6" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="16" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:11" ht="86.4">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="12" t="s">
+      <c r="E10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>4</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>7</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
@@ -1509,229 +1579,212 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492ED5A6-A2D6-6447-962D-D0499E4F0634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="G10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:K6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:E7"/>
@@ -1740,7 +1793,21 @@
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"×"</formula>
@@ -1756,425 +1823,497 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F69853-E6C5-D64D-BE9C-32340A9ACAA1}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="30.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="5" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14">
+        <v>8</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:I3"/>
+  <mergeCells count="14">
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F11" xr:uid="{A4F68A4F-E97D-654C-AC75-9BA84FFC6C83}">
-      <formula1>"√,×"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D726C-4347-BF47-ADF6-B425BC97BCA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="19" t="s">
+      <c r="B3" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="19" t="s">
+      <c r="B4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="19" t="s">
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="19" t="s">
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="19" t="s">
+      <c r="B7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="19" t="s">
+      <c r="B8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="21" t="s">
+      <c r="B9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="19" t="s">
+      <c r="B10" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="19" t="s">
+      <c r="B11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:E11"/>
@@ -2185,20 +2324,8 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"×"</formula>

--- a/checklist_v2_2.xlsx
+++ b/checklist_v2_2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\graduationPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenkai/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336760B-73AA-3446-8E66-FFBB8DB6A8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="456" windowWidth="24744" windowHeight="15540" activeTab="3"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="答辩审核" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>检查结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,38 +117,6 @@
   </si>
   <si>
     <t>参考资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">	姓名、学号、班级、校内指导老师、企业指导老师、论文题目、题目类别、题目性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选题背景和意义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选题研究状况和发展状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题目内容和要求，包括系统功能模块的简要描述等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采用的技术，包括体系结构、设计模式、建模工具、开发语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毕业设计时间安排</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查阅的文献，至少十篇，近五年文献超过50%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容宋体小四，行间距固定制20磅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,7 +296,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -436,6 +405,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -443,26 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,71 +773,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="2"/>
-    <col min="6" max="6" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="6" max="6" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:79">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:79" s="1" customFormat="1">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -942,20 +911,20 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4"/>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -1029,58 +998,58 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5"/>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:79">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6"/>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:79" s="1" customFormat="1">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -1153,59 +1122,59 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8"/>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:79">
       <c r="A9"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:79">
       <c r="A10"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:79">
       <c r="A11"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:79">
       <c r="A12"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:79">
       <c r="A13"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:79">
@@ -1299,12 +1268,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G3:K3"/>
@@ -1321,6 +1284,12 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -1339,34 +1308,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.77734375" style="6"/>
-    <col min="4" max="4" width="50.77734375" style="6" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="6"/>
+    <col min="4" max="4" width="50.83203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="6"/>
-    <col min="7" max="10" width="10.77734375" style="10"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="10" width="10.83203125" style="10"/>
     <col min="11" max="11" width="31.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1374,14 +1343,14 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
@@ -1390,15 +1359,15 @@
     </row>
     <row r="3" spans="1:11" s="6" customFormat="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="20"/>
+      <c r="B3" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="19"/>
       <c r="D3" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="5"/>
@@ -1411,15 +1380,15 @@
       <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="20"/>
+      <c r="B4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="19"/>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="5"/>
@@ -1432,12 +1401,12 @@
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1445,20 +1414,20 @@
       <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1466,20 +1435,20 @@
       <c r="H6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -1489,22 +1458,22 @@
       <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="I7" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1512,20 +1481,20 @@
       <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
       <c r="D9" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1533,40 +1502,35 @@
       <c r="H9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-    </row>
-    <row r="10" spans="1:11" ht="86.4">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" ht="90">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
@@ -1579,6 +1543,11 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1586,205 +1555,160 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:K6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B7:E7"/>
@@ -1793,19 +1717,6 @@
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -1823,44 +1734,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="30.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
@@ -1869,15 +1780,15 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="14"/>
-      <c r="B3" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="18"/>
       <c r="D3" s="14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -1887,169 +1798,169 @@
       <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="25"/>
+      <c r="B4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="14">
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>63</v>
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="25"/>
+      <c r="G5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="14">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="14">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>69</v>
+      <c r="B7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="25"/>
+      <c r="G7" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="14">
         <v>5</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>72</v>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="13"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="14">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>75</v>
+      <c r="B9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="14">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>77</v>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>79</v>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="14">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>81</v>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="25"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="13"/>
@@ -2094,30 +2005,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
@@ -2132,188 +2043,175 @@
       <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:E11"/>
@@ -2324,6 +2222,19 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">

--- a/checklist_v2_2.xlsx
+++ b/checklist_v2_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenkai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenkai/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B336760B-73AA-3446-8E66-FFBB8DB6A8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE42C35-0D73-8F42-A814-BC37619A9391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="101">
   <si>
     <t>检查结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,119 @@
   </si>
   <si>
     <t>【文字描述】</t>
+  </si>
+  <si>
+    <t>毕业设计开题报告检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生姓名、班级、学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否与被检查同学的姓名、班级、学号相一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业指导老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的写没有的就不用写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文设计题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与被检查同学所设计题目是否相一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目性质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据题目填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选题背景和意义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据论文题目真实的背景和意义填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选题相关的研究现状或发展现状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据论文第一章的1.1和1.2来填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统功能模块的简要描述，根据论文3.1系统功能模块设计填写。
+2.或者填写研究重点的简要描述，标明能够体现复杂问题的要求或约束。
+3.检查是否有300~500字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟采用的关键技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.体系结构
+2.设计模式
+3.建模工具
+4.开发语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业设计进度安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据demo中的安排，重新填写日期。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否在十篇以上，格式是否正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年、月、日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否正文内容宋体小四，行间距固定值20磅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -324,6 +437,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -358,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,9 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -412,26 +523,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,57 +920,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:79">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:79">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
       <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:79" s="1" customFormat="1">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
       <c r="F3"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -911,20 +1044,20 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4"/>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -998,58 +1131,58 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
       <c r="F5"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:79">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="F6"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:79" s="1" customFormat="1">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7"/>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -1122,59 +1255,59 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8"/>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:79">
       <c r="A9"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9"/>
     </row>
     <row r="10" spans="1:79">
       <c r="A10"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:79">
       <c r="A11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:79">
       <c r="A12"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12"/>
     </row>
     <row r="13" spans="1:79">
       <c r="A13"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="F13"/>
     </row>
     <row r="14" spans="1:79">
@@ -1268,6 +1401,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G3:K3"/>
@@ -1284,12 +1423,6 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -1317,220 +1450,225 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="6"/>
-    <col min="4" max="4" width="50.83203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="6"/>
-    <col min="7" max="10" width="10.83203125" style="10"/>
-    <col min="11" max="11" width="31.6640625" style="10" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="50.83203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="5"/>
+    <col min="7" max="10" width="10.83203125" style="9"/>
+    <col min="11" max="11" width="31.6640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" s="6" customFormat="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="19" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" s="6" customFormat="1">
-      <c r="A4" s="8">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="5" customFormat="1">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="24"/>
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>4</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>5</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>6</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" ht="90">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>7</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
@@ -1543,11 +1681,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1556,167 +1689,374 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:K6"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="16"/>
+    <col min="3" max="3" width="24.83203125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="16" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="16"/>
+    <col min="11" max="11" width="31.6640625" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="16"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="A2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="A7" s="18">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="A9" s="18">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
+      <c r="A10" s="18">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" ht="80">
+      <c r="A11" s="29">
+        <v>8</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="64">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" ht="16">
+      <c r="A13" s="29">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" ht="90">
+      <c r="A14" s="29">
+        <v>11</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="29">
+        <v>12</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="E15" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16">
+      <c r="A16" s="29">
+        <v>13</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="29">
+        <v>14</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G9:K9"/>
+  <mergeCells count="24">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
@@ -1749,238 +2089,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="13" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="25"/>
+      <c r="D4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>4</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="16" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="16" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>7</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14">
+      <c r="A11" s="13">
         <v>8</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14">
+      <c r="A12" s="13">
         <v>9</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="16" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2015,203 +2355,216 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="23" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="23" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="23" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="23" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="23" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="23" t="s">
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="25" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="23" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="23" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:J6"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="B11:E11"/>
@@ -2222,19 +2575,6 @@
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F4">
